--- a/StructureDefinition-lk-core-location.xlsx
+++ b/StructureDefinition-lk-core-location.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1354" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1354" uniqueCount="248">
   <si>
     <t>Property</t>
   </si>
@@ -137,6 +137,10 @@
   </si>
   <si>
     <t>Details and position information for a physical place where services are provided and resources and participants may be stored, found, contained, or accommodated.</t>
+  </si>
+  <si>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>.Role[classCode=SDLC]</t>
@@ -1233,10 +1237,10 @@
         <v>35</v>
       </c>
       <c r="AJ1" t="s" s="2">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="AK1" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AL1" t="s" s="2">
         <v>35</v>
@@ -1244,10 +1248,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -1258,7 +1262,7 @@
         <v>36</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>35</v>
@@ -1267,19 +1271,19 @@
         <v>35</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -1329,13 +1333,13 @@
         <v>35</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>35</v>
@@ -1352,10 +1356,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1366,7 +1370,7 @@
         <v>36</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>35</v>
@@ -1375,16 +1379,16 @@
         <v>35</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1435,19 +1439,19 @@
         <v>35</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>35</v>
@@ -1458,10 +1462,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1472,28 +1476,28 @@
         <v>36</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>35</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -1543,19 +1547,19 @@
         <v>35</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>35</v>
@@ -1566,10 +1570,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1580,7 +1584,7 @@
         <v>36</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>35</v>
@@ -1592,16 +1596,16 @@
         <v>35</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -1627,13 +1631,13 @@
         <v>35</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AA5" t="s" s="2">
         <v>35</v>
@@ -1651,19 +1655,19 @@
         <v>35</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>35</v>
@@ -1674,21 +1678,21 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>35</v>
@@ -1700,16 +1704,16 @@
         <v>35</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -1759,22 +1763,22 @@
         <v>35</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL6" t="s" s="2">
         <v>35</v>
@@ -1782,14 +1786,14 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -1808,16 +1812,16 @@
         <v>35</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -1867,7 +1871,7 @@
         <v>35</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>36</v>
@@ -1882,7 +1886,7 @@
         <v>35</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>35</v>
@@ -1890,14 +1894,14 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -1916,16 +1920,16 @@
         <v>35</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -1975,7 +1979,7 @@
         <v>35</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>36</v>
@@ -1987,10 +1991,10 @@
         <v>35</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>35</v>
@@ -1998,14 +2002,14 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2018,25 +2022,25 @@
         <v>35</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J9" t="s" s="2">
         <v>35</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O9" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="P9" t="s" s="2">
         <v>35</v>
@@ -2085,7 +2089,7 @@
         <v>35</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>36</v>
@@ -2097,10 +2101,10 @@
         <v>35</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>35</v>
@@ -2108,10 +2112,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -2131,20 +2135,20 @@
         <v>35</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>35</v>
@@ -2193,7 +2197,7 @@
         <v>35</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>36</v>
@@ -2205,21 +2209,21 @@
         <v>35</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2230,25 +2234,25 @@
         <v>36</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>35</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -2275,13 +2279,13 @@
         <v>35</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AA11" t="s" s="2">
         <v>35</v>
@@ -2299,33 +2303,33 @@
         <v>35</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2336,7 +2340,7 @@
         <v>36</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>35</v>
@@ -2345,16 +2349,16 @@
         <v>35</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -2381,13 +2385,13 @@
         <v>35</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>35</v>
@@ -2405,33 +2409,33 @@
         <v>35</v>
       </c>
       <c r="AF12" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AG12" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH12" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI12" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AK12" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AL12" t="s" s="2">
         <v>115</v>
-      </c>
-      <c r="AG12" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH12" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI12" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AJ12" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AK12" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="AL12" t="s" s="2">
-        <v>114</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2442,7 +2446,7 @@
         <v>36</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>35</v>
@@ -2451,19 +2455,19 @@
         <v>35</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -2513,22 +2517,22 @@
         <v>35</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>35</v>
@@ -2536,10 +2540,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2562,19 +2566,19 @@
         <v>35</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>35</v>
@@ -2623,7 +2627,7 @@
         <v>35</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>36</v>
@@ -2635,10 +2639,10 @@
         <v>35</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>35</v>
@@ -2646,10 +2650,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2660,7 +2664,7 @@
         <v>36</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>35</v>
@@ -2669,20 +2673,20 @@
         <v>35</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>35</v>
@@ -2731,22 +2735,22 @@
         <v>35</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>35</v>
@@ -2754,10 +2758,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2768,7 +2772,7 @@
         <v>36</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>35</v>
@@ -2777,22 +2781,22 @@
         <v>35</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>35</v>
@@ -2817,13 +2821,13 @@
         <v>35</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>35</v>
@@ -2841,33 +2845,33 @@
         <v>35</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -2887,16 +2891,16 @@
         <v>35</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -2923,13 +2927,13 @@
         <v>35</v>
       </c>
       <c r="X17" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="Y17" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="Y17" t="s" s="2">
-        <v>149</v>
-      </c>
       <c r="Z17" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>35</v>
@@ -2947,7 +2951,7 @@
         <v>35</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>36</v>
@@ -2959,21 +2963,21 @@
         <v>35</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -2996,13 +3000,13 @@
         <v>35</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3053,7 +3057,7 @@
         <v>35</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>36</v>
@@ -3065,10 +3069,10 @@
         <v>35</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>35</v>
@@ -3076,10 +3080,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3090,7 +3094,7 @@
         <v>36</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>35</v>
@@ -3102,19 +3106,19 @@
         <v>35</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>35</v>
@@ -3163,22 +3167,22 @@
         <v>35</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>35</v>
@@ -3186,10 +3190,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3200,7 +3204,7 @@
         <v>36</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>35</v>
@@ -3209,20 +3213,20 @@
         <v>35</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>35</v>
@@ -3247,13 +3251,13 @@
         <v>35</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>35</v>
@@ -3271,33 +3275,33 @@
         <v>35</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3308,7 +3312,7 @@
         <v>36</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>35</v>
@@ -3320,17 +3324,17 @@
         <v>35</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>35</v>
@@ -3379,22 +3383,22 @@
         <v>35</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>35</v>
@@ -3402,10 +3406,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3416,7 +3420,7 @@
         <v>36</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>35</v>
@@ -3428,13 +3432,13 @@
         <v>35</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -3485,13 +3489,13 @@
         <v>35</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>35</v>
@@ -3500,7 +3504,7 @@
         <v>35</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>35</v>
@@ -3508,14 +3512,14 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -3534,16 +3538,16 @@
         <v>35</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -3593,7 +3597,7 @@
         <v>35</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>36</v>
@@ -3605,10 +3609,10 @@
         <v>35</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>35</v>
@@ -3616,14 +3620,14 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -3636,25 +3640,25 @@
         <v>35</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>35</v>
@@ -3703,7 +3707,7 @@
         <v>35</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>36</v>
@@ -3715,10 +3719,10 @@
         <v>35</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>35</v>
@@ -3726,10 +3730,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3737,10 +3741,10 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>35</v>
@@ -3752,13 +3756,13 @@
         <v>35</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -3809,22 +3813,22 @@
         <v>35</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>35</v>
@@ -3832,10 +3836,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -3843,10 +3847,10 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>35</v>
@@ -3858,13 +3862,13 @@
         <v>35</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -3915,22 +3919,22 @@
         <v>35</v>
       </c>
       <c r="AF26" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AK26" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="AG26" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AK26" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>35</v>
@@ -3938,10 +3942,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -3952,7 +3956,7 @@
         <v>36</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>35</v>
@@ -3964,13 +3968,13 @@
         <v>35</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4021,22 +4025,22 @@
         <v>35</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>35</v>
@@ -4044,10 +4048,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4058,7 +4062,7 @@
         <v>36</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>35</v>
@@ -4067,22 +4071,22 @@
         <v>35</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>35</v>
@@ -4131,22 +4135,22 @@
         <v>35</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>35</v>
@@ -4154,10 +4158,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4168,7 +4172,7 @@
         <v>36</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>35</v>
@@ -4180,17 +4184,17 @@
         <v>35</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>35</v>
@@ -4239,22 +4243,22 @@
         <v>35</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>35</v>
@@ -4262,10 +4266,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4288,16 +4292,16 @@
         <v>35</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -4347,7 +4351,7 @@
         <v>35</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>36</v>
@@ -4359,10 +4363,10 @@
         <v>35</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>35</v>
@@ -4370,10 +4374,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4384,7 +4388,7 @@
         <v>36</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>35</v>
@@ -4396,13 +4400,13 @@
         <v>35</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -4453,13 +4457,13 @@
         <v>35</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>35</v>
@@ -4468,7 +4472,7 @@
         <v>35</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>35</v>
@@ -4476,14 +4480,14 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -4502,16 +4506,16 @@
         <v>35</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -4561,7 +4565,7 @@
         <v>35</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>36</v>
@@ -4573,10 +4577,10 @@
         <v>35</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>35</v>
@@ -4584,14 +4588,14 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -4604,25 +4608,25 @@
         <v>35</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>35</v>
@@ -4671,7 +4675,7 @@
         <v>35</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>36</v>
@@ -4683,10 +4687,10 @@
         <v>35</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>35</v>
@@ -4694,10 +4698,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -4720,13 +4724,13 @@
         <v>35</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -4753,13 +4757,13 @@
         <v>35</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>35</v>
@@ -4777,7 +4781,7 @@
         <v>35</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>36</v>
@@ -4789,10 +4793,10 @@
         <v>35</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>35</v>
@@ -4800,10 +4804,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -4814,7 +4818,7 @@
         <v>36</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>35</v>
@@ -4826,13 +4830,13 @@
         <v>35</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -4883,22 +4887,22 @@
         <v>35</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>35</v>
@@ -4906,10 +4910,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -4920,7 +4924,7 @@
         <v>36</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>35</v>
@@ -4932,13 +4936,13 @@
         <v>35</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -4989,22 +4993,22 @@
         <v>35</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>35</v>
@@ -5012,10 +5016,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5026,7 +5030,7 @@
         <v>36</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>35</v>
@@ -5038,13 +5042,13 @@
         <v>35</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5095,22 +5099,22 @@
         <v>35</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>35</v>
@@ -5118,10 +5122,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5132,7 +5136,7 @@
         <v>36</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>35</v>
@@ -5144,13 +5148,13 @@
         <v>35</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5201,22 +5205,22 @@
         <v>35</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>35</v>
@@ -5224,10 +5228,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5250,17 +5254,17 @@
         <v>35</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>35</v>
@@ -5309,7 +5313,7 @@
         <v>35</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>36</v>
@@ -5321,10 +5325,10 @@
         <v>35</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>35</v>
